--- a/Data_processed/industry/plastics.xlsx
+++ b/Data_processed/industry/plastics.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/plastics.xlsx
+++ b/Data_processed/industry/plastics.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/plastics.xlsx
+++ b/Data_processed/industry/plastics.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.052935602466622</v>
+        <v>0.2196665333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2196665333333333</v>
+        <v>2.395046</v>
       </c>
       <c r="F2" t="n">
-        <v>2.395046</v>
+        <v>6.1248858e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.18948705019388</v>
+        <v>0.8952171333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8952171333333333</v>
+        <v>20.986159</v>
       </c>
       <c r="F3" t="n">
-        <v>20.986159</v>
+        <v>2.4961029e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.55070995118324</v>
+        <v>1.6810802</v>
       </c>
       <c r="E4" t="n">
-        <v>1.6810802</v>
+        <v>37.707184</v>
       </c>
       <c r="F4" t="n">
-        <v>37.707184</v>
+        <v>4.6872976e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.47572337301674</v>
+        <v>1.3714992</v>
       </c>
       <c r="E5" t="n">
-        <v>1.3714992</v>
+        <v>35.121917</v>
       </c>
       <c r="F5" t="n">
-        <v>35.121917</v>
+        <v>3.8241036e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.441801027998808</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>31.32</v>
       </c>
       <c r="F6" t="n">
-        <v>31.32</v>
+        <v>2.7882653e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.438116713598</v>
+        <v>8.554685333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>8.554685333333333</v>
+        <v>142.95329</v>
       </c>
       <c r="F7" t="n">
-        <v>142.95329</v>
+        <v>0.00023852732</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.442705153665</v>
+        <v>4.52</v>
       </c>
       <c r="E8" t="n">
-        <v>4.52</v>
+        <v>59.325</v>
       </c>
       <c r="F8" t="n">
-        <v>59.325</v>
+        <v>0.00012602959</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.0120634871</v>
+        <v>2.19</v>
       </c>
       <c r="E9" t="n">
-        <v>2.19</v>
+        <v>74.00069999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>74.00069999999999</v>
+        <v>6.1063011e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4751288745036</v>
+        <v>2.600231933333334</v>
       </c>
       <c r="E10" t="n">
-        <v>2.600231933333334</v>
+        <v>70.437409</v>
       </c>
       <c r="F10" t="n">
-        <v>70.437409</v>
+        <v>7.2501366e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.594943025599</v>
+        <v>3.543347266666667</v>
       </c>
       <c r="E11" t="n">
-        <v>3.543347266666667</v>
+        <v>73.408489</v>
       </c>
       <c r="F11" t="n">
-        <v>73.408489</v>
+        <v>9.879792299999999e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.422900432967</v>
+        <v>2.154303266666667</v>
       </c>
       <c r="E12" t="n">
-        <v>2.154303266666667</v>
+        <v>78.276856</v>
       </c>
       <c r="F12" t="n">
-        <v>78.276856</v>
+        <v>6.0067691e-05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.718642792259</v>
+        <v>3.679052333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>3.679052333333333</v>
+        <v>129.25575</v>
       </c>
       <c r="F13" t="n">
-        <v>129.25575</v>
+        <v>0.00010258174</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.747375293434</v>
+        <v>4.048033466666666</v>
       </c>
       <c r="E14" t="n">
-        <v>4.048033466666666</v>
+        <v>109.35827</v>
       </c>
       <c r="F14" t="n">
-        <v>109.35827</v>
+        <v>0.00011286991</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.022671495588</v>
+        <v>1.472795533333333</v>
       </c>
       <c r="E15" t="n">
-        <v>1.472795533333333</v>
+        <v>73.319542</v>
       </c>
       <c r="F15" t="n">
-        <v>73.319542</v>
+        <v>4.1065447e-05</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.086004405083</v>
+        <v>1.302795466666667</v>
       </c>
       <c r="E16" t="n">
-        <v>1.302795466666667</v>
+        <v>70.911542</v>
       </c>
       <c r="F16" t="n">
-        <v>70.911542</v>
+        <v>3.6325395e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.7247583849754999</v>
+        <v>0.9287944</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9287944</v>
+        <v>47.761785</v>
       </c>
       <c r="F17" t="n">
-        <v>47.761785</v>
+        <v>2.5897252e-05</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1061746699945</v>
+        <v>0.5484019266666667</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5484019266666667</v>
+        <v>9.284810800000001</v>
       </c>
       <c r="F18" t="n">
-        <v>9.284810800000001</v>
+        <v>1.5290901e-05</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.162221428231585</v>
+        <v>0.8525138000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8525138000000001</v>
+        <v>14.801935</v>
       </c>
       <c r="F19" t="n">
-        <v>14.801935</v>
+        <v>2.3770347e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.538282181986</v>
+        <v>2.4773426</v>
       </c>
       <c r="E20" t="n">
-        <v>2.4773426</v>
+        <v>46.025018</v>
       </c>
       <c r="F20" t="n">
-        <v>46.025018</v>
+        <v>6.907488600000001e-05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.438116713598</v>
+        <v>8.554685333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>8.554685333333333</v>
+        <v>142.95329</v>
       </c>
       <c r="F21" t="n">
-        <v>142.95329</v>
+        <v>0.00023852732</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8543153265179999</v>
+        <v>3.923734066666666</v>
       </c>
       <c r="E22" t="n">
-        <v>3.923734066666666</v>
+        <v>40.651127</v>
       </c>
       <c r="F22" t="n">
-        <v>40.651127</v>
+        <v>0.00010940412</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.352036866032</v>
+        <v>1.598976066666667</v>
       </c>
       <c r="E23" t="n">
-        <v>1.598976066666667</v>
+        <v>36.178202</v>
       </c>
       <c r="F23" t="n">
-        <v>36.178202</v>
+        <v>4.4583696e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.600920520103</v>
+        <v>11.31087333333333</v>
       </c>
       <c r="E24" t="n">
-        <v>11.31087333333333</v>
+        <v>132.27636</v>
       </c>
       <c r="F24" t="n">
-        <v>132.27636</v>
+        <v>0.00031537717</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8304051536650001</v>
+        <v>4.52</v>
       </c>
       <c r="E25" t="n">
-        <v>4.52</v>
+        <v>59.325</v>
       </c>
       <c r="F25" t="n">
-        <v>59.325</v>
+        <v>0.00012602959</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8076338589018001</v>
+        <v>4.610551066666667</v>
       </c>
       <c r="E26" t="n">
-        <v>4.610551066666667</v>
+        <v>62.505631</v>
       </c>
       <c r="F26" t="n">
-        <v>62.505631</v>
+        <v>0.0001285544</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.658884573242</v>
+        <v>3.364801066666667</v>
       </c>
       <c r="E27" t="n">
-        <v>3.364801066666667</v>
+        <v>62.740713</v>
       </c>
       <c r="F27" t="n">
-        <v>62.740713</v>
+        <v>9.381958300000001e-05</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.258311599642</v>
+        <v>1.528976066666667</v>
       </c>
       <c r="E28" t="n">
-        <v>1.528976066666667</v>
+        <v>33.160202</v>
       </c>
       <c r="F28" t="n">
-        <v>33.160202</v>
+        <v>4.2631911e-05</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.258311599632</v>
+        <v>1.528976066666667</v>
       </c>
       <c r="E29" t="n">
-        <v>1.528976066666667</v>
+        <v>33.160202</v>
       </c>
       <c r="F29" t="n">
-        <v>33.160202</v>
+        <v>4.2631911e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2739389691383</v>
+        <v>1.2611712</v>
       </c>
       <c r="E30" t="n">
-        <v>1.2611712</v>
+        <v>17.045002</v>
       </c>
       <c r="F30" t="n">
-        <v>17.045002</v>
+        <v>3.5164799e-05</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.4751288745036</v>
+        <v>2.600231933333334</v>
       </c>
       <c r="E31" t="n">
-        <v>2.600231933333334</v>
+        <v>70.437409</v>
       </c>
       <c r="F31" t="n">
-        <v>70.437409</v>
+        <v>7.2501366e-05</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.594943025599</v>
+        <v>3.543347266666667</v>
       </c>
       <c r="E32" t="n">
-        <v>3.543347266666667</v>
+        <v>73.408489</v>
       </c>
       <c r="F32" t="n">
-        <v>73.408489</v>
+        <v>9.879792299999999e-05</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.614672943282</v>
+        <v>4.280476066666667</v>
       </c>
       <c r="E33" t="n">
-        <v>4.280476066666667</v>
+        <v>64.62263799999999</v>
       </c>
       <c r="F33" t="n">
-        <v>64.62263799999999</v>
+        <v>0.00011935103</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.6603237447492</v>
+        <v>4.034741066666666</v>
       </c>
       <c r="E34" t="n">
-        <v>4.034741066666666</v>
+        <v>70.02723400000001</v>
       </c>
       <c r="F34" t="n">
-        <v>70.02723400000001</v>
+        <v>0.00011249929</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.321644513192</v>
+        <v>1.358976066666667</v>
       </c>
       <c r="E35" t="n">
-        <v>1.358976066666667</v>
+        <v>30.728201</v>
       </c>
       <c r="F35" t="n">
-        <v>30.728201</v>
+        <v>3.7891859e-05</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.298136321762</v>
+        <v>1.924691066666667</v>
       </c>
       <c r="E36" t="n">
-        <v>1.924691066666667</v>
+        <v>34.239213</v>
       </c>
       <c r="F36" t="n">
-        <v>34.239213</v>
+        <v>5.3665495e-05</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.716444579977</v>
+        <v>12.91653533333333</v>
       </c>
       <c r="E37" t="n">
-        <v>12.91653533333333</v>
+        <v>167.56596</v>
       </c>
       <c r="F37" t="n">
-        <v>167.56596</v>
+        <v>0.00036014728</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.616094202411</v>
+        <v>3.834562333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>3.834562333333333</v>
+        <v>49.164251</v>
       </c>
       <c r="F38" t="n">
-        <v>49.164251</v>
+        <v>0.00010691777</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.599034693287</v>
+        <v>3.3528148</v>
       </c>
       <c r="E39" t="n">
-        <v>3.3528148</v>
+        <v>63.937295</v>
       </c>
       <c r="F39" t="n">
-        <v>63.937295</v>
+        <v>9.3485374e-05</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6219102574019999</v>
+        <v>2.368136066666667</v>
       </c>
       <c r="E40" t="n">
-        <v>2.368136066666667</v>
+        <v>45.275045</v>
       </c>
       <c r="F40" t="n">
-        <v>45.275045</v>
+        <v>6.602991800000001e-05</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.422900432967</v>
+        <v>2.154303266666667</v>
       </c>
       <c r="E41" t="n">
-        <v>2.154303266666667</v>
+        <v>78.276856</v>
       </c>
       <c r="F41" t="n">
-        <v>78.276856</v>
+        <v>6.0067691e-05</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.718642792259</v>
+        <v>3.679052333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>3.679052333333333</v>
+        <v>129.25575</v>
       </c>
       <c r="F42" t="n">
-        <v>129.25575</v>
+        <v>0.00010258174</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.747375294434</v>
+        <v>4.048033466666666</v>
       </c>
       <c r="E43" t="n">
-        <v>4.048033466666666</v>
+        <v>109.35827</v>
       </c>
       <c r="F43" t="n">
-        <v>109.35827</v>
+        <v>0.00011286991</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8090091424689999</v>
+        <v>4.858976066666666</v>
       </c>
       <c r="E44" t="n">
-        <v>4.858976066666666</v>
+        <v>48.811202</v>
       </c>
       <c r="F44" t="n">
-        <v>48.811202</v>
+        <v>0.00013548115</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.321644511782</v>
+        <v>1.358976066666667</v>
       </c>
       <c r="E45" t="n">
-        <v>1.358976066666667</v>
+        <v>30.728201</v>
       </c>
       <c r="F45" t="n">
-        <v>30.728201</v>
+        <v>3.7891859e-05</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.2739389691383</v>
+        <v>1.2611712</v>
       </c>
       <c r="E46" t="n">
-        <v>1.2611712</v>
+        <v>17.045002</v>
       </c>
       <c r="F46" t="n">
-        <v>17.045002</v>
+        <v>3.5164799e-05</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7247583849754999</v>
+        <v>0.9287944</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9287944</v>
+        <v>47.761785</v>
       </c>
       <c r="F47" t="n">
-        <v>47.761785</v>
+        <v>2.5897252e-05</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.77399444225512</v>
+        <v>3.964</v>
       </c>
       <c r="E48" t="n">
-        <v>3.964</v>
+        <v>106.81064</v>
       </c>
       <c r="F48" t="n">
-        <v>106.81064</v>
+        <v>0.00011052684</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.5052065003511</v>
+        <v>3.785343266666667</v>
       </c>
       <c r="E49" t="n">
-        <v>3.785343266666667</v>
+        <v>107.99371</v>
       </c>
       <c r="F49" t="n">
-        <v>107.99371</v>
+        <v>0.00010554541</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.572580176063</v>
+        <v>3.5</v>
       </c>
       <c r="E50" t="n">
-        <v>3.5</v>
+        <v>93.87</v>
       </c>
       <c r="F50" t="n">
-        <v>93.87</v>
+        <v>9.7589287e-05</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.4164710559896</v>
+        <v>3.619343</v>
       </c>
       <c r="E51" t="n">
-        <v>3.619343</v>
+        <v>76.88058599999999</v>
       </c>
       <c r="F51" t="n">
-        <v>76.88058599999999</v>
+        <v>0.00010091689</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.4230075830947</v>
+        <v>2.667972866666667</v>
       </c>
       <c r="E52" t="n">
-        <v>2.667972866666667</v>
+        <v>78.918212</v>
       </c>
       <c r="F52" t="n">
-        <v>78.918212</v>
+        <v>7.4390162e-05</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2.0087838527637</v>
+        <v>1.380807133333333</v>
       </c>
       <c r="E53" t="n">
-        <v>1.380807133333333</v>
+        <v>51.546917</v>
       </c>
       <c r="F53" t="n">
-        <v>51.546917</v>
+        <v>3.8500567e-05</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.5558449347639</v>
+        <v>3.568424733333333</v>
       </c>
       <c r="E54" t="n">
-        <v>3.568424733333333</v>
+        <v>75.143962</v>
       </c>
       <c r="F54" t="n">
-        <v>75.143962</v>
+        <v>9.9497149e-05</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.377154534238</v>
+        <v>5.255020866666666</v>
       </c>
       <c r="E55" t="n">
-        <v>5.255020866666666</v>
+        <v>106.85413</v>
       </c>
       <c r="F55" t="n">
-        <v>106.85413</v>
+        <v>0.00014652393</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.53179272331973</v>
+        <v>4.631258133333334</v>
       </c>
       <c r="E56" t="n">
-        <v>4.631258133333334</v>
+        <v>127.45566</v>
       </c>
       <c r="F56" t="n">
-        <v>127.45566</v>
+        <v>0.00012913177</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.379858618942</v>
+        <v>2.72</v>
       </c>
       <c r="E57" t="n">
-        <v>2.72</v>
+        <v>99.71850000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>99.71850000000001</v>
+        <v>7.584081699999999e-05</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.3964135096711</v>
+        <v>3.462078266666667</v>
       </c>
       <c r="E58" t="n">
-        <v>3.462078266666667</v>
+        <v>97.28514</v>
       </c>
       <c r="F58" t="n">
-        <v>97.28514</v>
+        <v>9.653192800000001e-05</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.987680530008</v>
+        <v>7.28005</v>
       </c>
       <c r="E59" t="n">
-        <v>7.28005</v>
+        <v>104.05724</v>
       </c>
       <c r="F59" t="n">
-        <v>104.05724</v>
+        <v>0.00020298711</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.37985990516</v>
+        <v>2.69</v>
       </c>
       <c r="E60" t="n">
-        <v>2.69</v>
+        <v>97.1985</v>
       </c>
       <c r="F60" t="n">
-        <v>97.1985</v>
+        <v>7.500433799999999e-05</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.0562702697</v>
+        <v>2.255</v>
       </c>
       <c r="E61" t="n">
-        <v>2.255</v>
+        <v>69.45495</v>
       </c>
       <c r="F61" t="n">
-        <v>69.45495</v>
+        <v>6.2875383e-05</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3.473155332035</v>
+        <v>11.58189733333333</v>
       </c>
       <c r="E62" t="n">
-        <v>11.58189733333333</v>
+        <v>183.80315</v>
       </c>
       <c r="F62" t="n">
-        <v>183.80315</v>
+        <v>0.00032293404</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.442705153665</v>
+        <v>4.52</v>
       </c>
       <c r="E63" t="n">
-        <v>4.52</v>
+        <v>101.527</v>
       </c>
       <c r="F63" t="n">
-        <v>101.527</v>
+        <v>0.00012602959</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.100261945371</v>
+        <v>3.536</v>
       </c>
       <c r="E64" t="n">
-        <v>3.536</v>
+        <v>72.4849</v>
       </c>
       <c r="F64" t="n">
-        <v>72.4849</v>
+        <v>9.859306200000001e-05</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.8265801667</v>
+        <v>6.4</v>
       </c>
       <c r="E65" t="n">
-        <v>6.4</v>
+        <v>146.9138</v>
       </c>
       <c r="F65" t="n">
-        <v>146.9138</v>
+        <v>0.00017844898</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.36897445329</v>
+        <v>4.852</v>
       </c>
       <c r="E66" t="n">
-        <v>4.852</v>
+        <v>104.25566</v>
       </c>
       <c r="F66" t="n">
-        <v>104.25566</v>
+        <v>0.00013528663</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1.1938793114</v>
+        <v>1.63</v>
       </c>
       <c r="E67" t="n">
-        <v>1.63</v>
+        <v>82.255</v>
       </c>
       <c r="F67" t="n">
-        <v>82.255</v>
+        <v>4.5448725e-05</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.440442030497844</v>
+        <v>3.4</v>
       </c>
       <c r="E68" t="n">
-        <v>3.4</v>
+        <v>110.4868</v>
       </c>
       <c r="F68" t="n">
-        <v>110.4868</v>
+        <v>9.4801022e-05</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.098677759198491</v>
+        <v>2.752</v>
       </c>
       <c r="E69" t="n">
-        <v>2.752</v>
+        <v>78.75676</v>
       </c>
       <c r="F69" t="n">
-        <v>78.75676</v>
+        <v>7.673306199999999e-05</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2595,13 +2640,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.1305463954</v>
+        <v>1.8</v>
       </c>
       <c r="E70" t="n">
-        <v>1.8</v>
+        <v>84.687</v>
       </c>
       <c r="F70" t="n">
-        <v>84.687</v>
+        <v>5.0188776e-05</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2626,13 +2671,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.2242716617</v>
+        <v>1.87</v>
       </c>
       <c r="E71" t="n">
-        <v>1.87</v>
+        <v>87.705</v>
       </c>
       <c r="F71" t="n">
-        <v>87.705</v>
+        <v>5.2140562e-05</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2657,13 +2702,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.186145735672</v>
+        <v>1.79</v>
       </c>
       <c r="E72" t="n">
-        <v>1.79</v>
+        <v>83.755</v>
       </c>
       <c r="F72" t="n">
-        <v>83.755</v>
+        <v>4.990995e-05</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2688,13 +2733,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.3275536541366</v>
+        <v>2.455940066666667</v>
       </c>
       <c r="E73" t="n">
-        <v>2.455940066666667</v>
+        <v>96.330916</v>
       </c>
       <c r="F73" t="n">
-        <v>96.330916</v>
+        <v>6.847812500000001e-05</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2719,13 +2764,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.7988127784900001</v>
+        <v>1.905</v>
       </c>
       <c r="E74" t="n">
-        <v>1.905</v>
+        <v>52.8107</v>
       </c>
       <c r="F74" t="n">
-        <v>52.8107</v>
+        <v>5.3116455e-05</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2750,13 +2795,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.00580687394474</v>
+        <v>2.051337733333333</v>
       </c>
       <c r="E75" t="n">
-        <v>2.051337733333333</v>
+        <v>72.04149099999999</v>
       </c>
       <c r="F75" t="n">
-        <v>72.04149099999999</v>
+        <v>5.719674e-05</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2781,13 +2826,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.0120634871</v>
+        <v>2.19</v>
       </c>
       <c r="E76" t="n">
-        <v>2.19</v>
+        <v>73.42100000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>73.42100000000001</v>
+        <v>6.1063011e-05</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2812,13 +2857,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.13393541269876</v>
+        <v>3.9</v>
       </c>
       <c r="E77" t="n">
-        <v>3.9</v>
+        <v>98.7</v>
       </c>
       <c r="F77" t="n">
-        <v>98.7</v>
+        <v>0.00010874235</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2843,13 +2888,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.9132043730725461</v>
+        <v>3.2</v>
       </c>
       <c r="E78" t="n">
-        <v>3.2</v>
+        <v>90.5522</v>
       </c>
       <c r="F78" t="n">
-        <v>90.5522</v>
+        <v>8.9224491e-05</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2874,13 +2919,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.1938793114</v>
+        <v>1.63</v>
       </c>
       <c r="E79" t="n">
-        <v>1.63</v>
+        <v>82.255</v>
       </c>
       <c r="F79" t="n">
-        <v>82.255</v>
+        <v>4.5448725e-05</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2905,13 +2950,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.9260838580599999</v>
+        <v>1.513</v>
       </c>
       <c r="E80" t="n">
-        <v>1.513</v>
+        <v>58.9945</v>
       </c>
       <c r="F80" t="n">
-        <v>58.9945</v>
+        <v>4.2186455e-05</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2936,13 +2981,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.257444609376124</v>
+        <v>2.28</v>
       </c>
       <c r="E81" t="n">
-        <v>2.28</v>
+        <v>90.587</v>
       </c>
       <c r="F81" t="n">
-        <v>90.587</v>
+        <v>6.357245e-05</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2967,13 +3012,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.228349143475786</v>
+        <v>2.16</v>
       </c>
       <c r="E82" t="n">
-        <v>2.16</v>
+        <v>88.57550000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>88.57550000000001</v>
+        <v>6.0226531e-05</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2998,13 +3043,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.244027348371381</v>
+        <v>2.25</v>
       </c>
       <c r="E83" t="n">
-        <v>2.25</v>
+        <v>90.24469999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>90.24469999999999</v>
+        <v>6.273597e-05</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3029,13 +3074,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3.0961243335</v>
+        <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>184.8</v>
       </c>
       <c r="F84" t="n">
-        <v>184.8</v>
+        <v>0.00033459184</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3060,13 +3105,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9831310604219999</v>
+        <v>3.324106266666667</v>
       </c>
       <c r="E85" t="n">
-        <v>3.324106266666667</v>
+        <v>74.167906</v>
       </c>
       <c r="F85" t="n">
-        <v>74.167906</v>
+        <v>9.2684902e-05</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3091,13 +3136,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.40886249259</v>
+        <v>3.25124</v>
       </c>
       <c r="E86" t="n">
-        <v>3.25124</v>
+        <v>126.5305</v>
       </c>
       <c r="F86" t="n">
-        <v>126.5305</v>
+        <v>9.0653198e-05</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3122,13 +3167,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.0047794821</v>
+        <v>2.37</v>
       </c>
       <c r="E87" t="n">
-        <v>2.37</v>
+        <v>66.2024</v>
       </c>
       <c r="F87" t="n">
-        <v>66.2024</v>
+        <v>6.6081889e-05</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3153,13 +3198,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.9564500920000001</v>
+        <v>2.22</v>
       </c>
       <c r="E88" t="n">
-        <v>2.22</v>
+        <v>64.318</v>
       </c>
       <c r="F88" t="n">
-        <v>64.318</v>
+        <v>6.1899491e-05</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3184,13 +3229,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.9661159620000001</v>
+        <v>2.25</v>
       </c>
       <c r="E89" t="n">
-        <v>2.25</v>
+        <v>64.69488</v>
       </c>
       <c r="F89" t="n">
-        <v>64.69488</v>
+        <v>6.273597e-05</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3215,13 +3260,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3.722839283</v>
+        <v>4.577</v>
       </c>
       <c r="E90" t="n">
-        <v>4.577</v>
+        <v>91.16016500000001</v>
       </c>
       <c r="F90" t="n">
-        <v>91.16016500000001</v>
+        <v>0.0001276189</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3246,13 +3291,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.519003937899564</v>
+        <v>5.13</v>
       </c>
       <c r="E91" t="n">
-        <v>5.13</v>
+        <v>100.338</v>
       </c>
       <c r="F91" t="n">
-        <v>100.338</v>
+        <v>0.00014303801</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3277,13 +3322,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4.765467788334581</v>
+        <v>22.58306533333333</v>
       </c>
       <c r="E92" t="n">
-        <v>22.58306533333333</v>
+        <v>304.8492</v>
       </c>
       <c r="F92" t="n">
-        <v>304.8492</v>
+        <v>0.00062967579</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3308,13 +3353,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.357063795108334</v>
+        <v>2.299294466666667</v>
       </c>
       <c r="E93" t="n">
-        <v>2.299294466666667</v>
+        <v>71.290593</v>
       </c>
       <c r="F93" t="n">
-        <v>71.290593</v>
+        <v>6.411043e-05</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3339,13 +3384,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.962506894721</v>
+        <v>1.770294</v>
       </c>
       <c r="E94" t="n">
-        <v>1.770294</v>
+        <v>48.4836</v>
       </c>
       <c r="F94" t="n">
-        <v>48.4836</v>
+        <v>4.9360494e-05</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3370,13 +3415,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.9341878963829999</v>
+        <v>1.356382</v>
       </c>
       <c r="E95" t="n">
-        <v>1.356382</v>
+        <v>32.3806</v>
       </c>
       <c r="F95" t="n">
-        <v>32.3806</v>
+        <v>3.7819529e-05</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3401,13 +3446,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.9178362702335218</v>
+        <v>1.609020133333333</v>
       </c>
       <c r="E96" t="n">
-        <v>1.609020133333333</v>
+        <v>42.779885</v>
       </c>
       <c r="F96" t="n">
-        <v>42.779885</v>
+        <v>4.486375e-05</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3432,13 +3477,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.154885458070837</v>
+        <v>2.161447933333333</v>
       </c>
       <c r="E97" t="n">
-        <v>2.161447933333333</v>
+        <v>58.520335</v>
       </c>
       <c r="F97" t="n">
-        <v>58.520335</v>
+        <v>6.0266904e-05</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3463,13 +3508,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.30010962377</v>
+        <v>3.310908733333334</v>
       </c>
       <c r="E98" t="n">
-        <v>3.310908733333334</v>
+        <v>106.97203</v>
       </c>
       <c r="F98" t="n">
-        <v>106.97203</v>
+        <v>9.231692e-05</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3494,13 +3539,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.166434201163679</v>
+        <v>3.560533133333333</v>
       </c>
       <c r="E99" t="n">
-        <v>3.560533133333333</v>
+        <v>99.515</v>
       </c>
       <c r="F99" t="n">
-        <v>99.515</v>
+        <v>9.9277111e-05</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3525,13 +3570,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.30014482377</v>
+        <v>3.295048733333334</v>
       </c>
       <c r="E100" t="n">
-        <v>3.295048733333334</v>
+        <v>107.43137</v>
       </c>
       <c r="F100" t="n">
-        <v>107.43137</v>
+        <v>9.1874702e-05</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3556,13 +3601,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.2671334598015</v>
+        <v>3.179178733333333</v>
       </c>
       <c r="E101" t="n">
-        <v>3.179178733333333</v>
+        <v>108.12164</v>
       </c>
       <c r="F101" t="n">
-        <v>108.12164</v>
+        <v>8.8643939e-05</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3587,13 +3632,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.2328971320686</v>
+        <v>3.1316194</v>
       </c>
       <c r="E102" t="n">
-        <v>3.1316194</v>
+        <v>104.69164</v>
       </c>
       <c r="F102" t="n">
-        <v>104.69164</v>
+        <v>8.7317858e-05</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3618,13 +3663,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.4720943510641804</v>
+        <v>1.492859266666667</v>
       </c>
       <c r="E103" t="n">
-        <v>1.492859266666667</v>
+        <v>23.674994</v>
       </c>
       <c r="F103" t="n">
-        <v>23.674994</v>
+        <v>4.1624878e-05</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3649,13 +3694,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.4461759658566837</v>
+        <v>1.436216133333333</v>
       </c>
       <c r="E104" t="n">
-        <v>1.436216133333333</v>
+        <v>18.479669</v>
       </c>
       <c r="F104" t="n">
-        <v>18.479669</v>
+        <v>4.0045516e-05</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3680,13 +3725,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.9067052648048999</v>
+        <v>1.604036</v>
       </c>
       <c r="E105" t="n">
-        <v>1.604036</v>
+        <v>24.0908</v>
       </c>
       <c r="F105" t="n">
-        <v>24.0908</v>
+        <v>4.472478e-05</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3711,13 +3756,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.09835251847396</v>
+        <v>2.263711066666667</v>
       </c>
       <c r="E106" t="n">
-        <v>2.263711066666667</v>
+        <v>82.651878</v>
       </c>
       <c r="F106" t="n">
-        <v>82.651878</v>
+        <v>6.3118271e-05</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3742,13 +3787,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.075031794608624</v>
+        <v>2.2</v>
       </c>
       <c r="E107" t="n">
-        <v>2.2</v>
+        <v>87.51220000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>87.51220000000001</v>
+        <v>6.134183799999999e-05</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3773,13 +3818,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1.075031794608624</v>
+        <v>2.2</v>
       </c>
       <c r="E108" t="n">
-        <v>2.2</v>
+        <v>87.51220000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>87.51220000000001</v>
+        <v>6.134183799999999e-05</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3804,13 +3849,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.3198706916</v>
+        <v>2.0349</v>
       </c>
       <c r="E109" t="n">
-        <v>2.0349</v>
+        <v>56.86065</v>
       </c>
       <c r="F109" t="n">
-        <v>56.86065</v>
+        <v>5.6738411e-05</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3835,13 +3880,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1.4874931078158</v>
+        <v>5.231029066666667</v>
       </c>
       <c r="E110" t="n">
-        <v>5.231029066666667</v>
+        <v>113.09943</v>
       </c>
       <c r="F110" t="n">
-        <v>113.09943</v>
+        <v>0.00014585497</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3866,13 +3911,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.558399457943911</v>
+        <v>0.9444846</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9444846</v>
+        <v>57.375164</v>
       </c>
       <c r="F111" t="n">
-        <v>57.375164</v>
+        <v>2.6334737e-05</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3897,13 +3942,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1.111311799999801</v>
+        <v>2.76</v>
       </c>
       <c r="E112" t="n">
-        <v>2.76</v>
+        <v>90.53279999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>90.53279999999999</v>
+        <v>7.6956123e-05</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3928,13 +3973,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.51934054089</v>
+        <v>3.700000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>3.700000000000001</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>0.00010316582</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3959,13 +4004,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>129.5278623237149</v>
+        <v>831.0000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>831.0000000000001</v>
+        <v>11066.7</v>
       </c>
       <c r="F114" t="n">
-        <v>11066.7</v>
+        <v>0.023170485</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3990,13 +4035,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5.59896841082</v>
+        <v>18</v>
       </c>
       <c r="E115" t="n">
-        <v>18</v>
+        <v>280.08</v>
       </c>
       <c r="F115" t="n">
-        <v>280.08</v>
+        <v>0.00050188776</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4021,13 +4066,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2.75846908448</v>
+        <v>9.768470000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>9.768470000000001</v>
+        <v>225.713</v>
       </c>
       <c r="F116" t="n">
-        <v>225.713</v>
+        <v>0.00027237086</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4052,13 +4097,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1.47206326828</v>
+        <v>3.270807466666667</v>
       </c>
       <c r="E117" t="n">
-        <v>3.270807466666667</v>
+        <v>83.349384</v>
       </c>
       <c r="F117" t="n">
-        <v>83.349384</v>
+        <v>9.1198792e-05</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4083,13 +4128,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1.226592066632592</v>
+        <v>2.875</v>
       </c>
       <c r="E118" t="n">
-        <v>2.875</v>
+        <v>98.0408</v>
       </c>
       <c r="F118" t="n">
-        <v>98.0408</v>
+        <v>8.0162629e-05</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4114,13 +4159,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4.818195064</v>
+        <v>7.166394</v>
       </c>
       <c r="E119" t="n">
-        <v>7.166394</v>
+        <v>172.46161</v>
       </c>
       <c r="F119" t="n">
-        <v>172.46161</v>
+        <v>0.00019981808</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4145,13 +4190,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1.0336906967651</v>
+        <v>2.334494933333334</v>
       </c>
       <c r="E120" t="n">
-        <v>2.334494933333334</v>
+        <v>84.31511399999999</v>
       </c>
       <c r="F120" t="n">
-        <v>84.31511399999999</v>
+        <v>6.5091913e-05</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4176,13 +4221,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1.200841206</v>
+        <v>3.14</v>
       </c>
       <c r="E121" t="n">
-        <v>3.14</v>
+        <v>86.6658</v>
       </c>
       <c r="F121" t="n">
-        <v>86.6658</v>
+        <v>8.7551532e-05</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4207,13 +4252,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.87445346466693</v>
+        <v>1.487100466666667</v>
       </c>
       <c r="E122" t="n">
-        <v>1.487100466666667</v>
+        <v>65.83645300000001</v>
       </c>
       <c r="F122" t="n">
-        <v>65.83645300000001</v>
+        <v>4.1464307e-05</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4238,13 +4283,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.78559128397693</v>
+        <v>1.779600466666666</v>
       </c>
       <c r="E123" t="n">
-        <v>1.779600466666666</v>
+        <v>57.386953</v>
       </c>
       <c r="F123" t="n">
-        <v>57.386953</v>
+        <v>4.9619983e-05</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4269,13 +4314,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.92195315576693</v>
+        <v>1.359600466666667</v>
       </c>
       <c r="E124" t="n">
-        <v>1.359600466666667</v>
+        <v>64.01245299999999</v>
       </c>
       <c r="F124" t="n">
-        <v>64.01245299999999</v>
+        <v>3.7909269e-05</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4300,13 +4345,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.75113064526693</v>
+        <v>1.824600466666667</v>
       </c>
       <c r="E125" t="n">
-        <v>1.824600466666667</v>
+        <v>50.842362</v>
       </c>
       <c r="F125" t="n">
-        <v>50.842362</v>
+        <v>5.0874703e-05</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4331,13 +4376,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.04115835451</v>
+        <v>0.2099728533333333</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2099728533333333</v>
+        <v>3.791114</v>
       </c>
       <c r="F126" t="n">
-        <v>3.791114</v>
+        <v>5.8546003e-06</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4362,13 +4407,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.21344914342</v>
+        <v>1.088929</v>
       </c>
       <c r="E127" t="n">
-        <v>1.088929</v>
+        <v>19.660893</v>
       </c>
       <c r="F127" t="n">
-        <v>19.660893</v>
+        <v>3.0362229e-05</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4393,13 +4438,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.02392927587</v>
+        <v>0.12207724</v>
       </c>
       <c r="E128" t="n">
-        <v>0.12207724</v>
+        <v>2.204136</v>
       </c>
       <c r="F128" t="n">
-        <v>2.204136</v>
+        <v>3.4038374e-06</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4424,13 +4469,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.06508763059</v>
+        <v>0.3320500933333334</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3320500933333334</v>
+        <v>5.99525</v>
       </c>
       <c r="F129" t="n">
-        <v>5.99525</v>
+        <v>9.2584376e-06</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4455,13 +4500,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.08901690594</v>
+        <v>0.4541273333333334</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4541273333333334</v>
+        <v>8.199386000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>8.199386000000001</v>
+        <v>1.2662275e-05</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4486,13 +4531,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.22684953019</v>
+        <v>1.1572922</v>
       </c>
       <c r="E131" t="n">
-        <v>1.1572922</v>
+        <v>20.89521</v>
       </c>
       <c r="F131" t="n">
-        <v>20.89521</v>
+        <v>3.2268378e-05</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4517,13 +4562,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.073204525291585</v>
+        <v>0.3983864866666667</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3983864866666667</v>
+        <v>6.6025494</v>
       </c>
       <c r="F132" t="n">
-        <v>6.6025494</v>
+        <v>1.1108072e-05</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4548,13 +4593,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.04211552516</v>
+        <v>0.21485594</v>
       </c>
       <c r="E133" t="n">
-        <v>0.21485594</v>
+        <v>3.8792794</v>
       </c>
       <c r="F133" t="n">
-        <v>3.8792794</v>
+        <v>5.9907538e-06</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4579,13 +4624,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.08614539285</v>
+        <v>0.43947806</v>
       </c>
       <c r="E134" t="n">
-        <v>0.43947806</v>
+        <v>7.9348897</v>
       </c>
       <c r="F134" t="n">
-        <v>7.9348897</v>
+        <v>1.2253815e-05</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4610,13 +4655,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.00012060355019</v>
+        <v>0.0006152692866666667</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0006152692866666667</v>
+        <v>0.011108846</v>
       </c>
       <c r="F135" t="n">
-        <v>0.011108846</v>
+        <v>1.715534e-08</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4626,5 +4671,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>